--- a/aispeech/ddsserver/dm/autotest/车控测试集.xlsx
+++ b/aispeech/ddsserver/dm/autotest/车控测试集.xlsx
@@ -3,9 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="27870" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="车控测试集" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>测试用例</t>
   </si>
@@ -35,6 +34,9 @@
     <t>command</t>
   </si>
   <si>
+    <t>nlg</t>
+  </si>
+  <si>
     <t>错误提示</t>
   </si>
   <si>
@@ -53,10 +55,18 @@
     <t>车身控制</t>
   </si>
   <si>
-    <t>操作=打开&amp;位置=主驾&amp;对象=车窗</t>
-  </si>
-  <si>
-    <t>{"api": "sys.car.crl", "param": {"position": "主驾", "object_raw": "车窗", "customInnerType": "nativeCommand", "object": "车窗", "action": "打开"}}</t>
+    <t>操作=打开
+位置=主驾
+对象=车窗
+对象_raw=车窗</t>
+  </si>
+  <si>
+    <t>api=sys.car.crl
+param.position=主驾
+param.customInnerType=nativeCommand
+param.action=打开
+param.object_raw=车窗
+param.object=车窗</t>
   </si>
   <si>
     <t>GDC车载控制1</t>
@@ -68,10 +78,29 @@
     <t>车身控制1</t>
   </si>
   <si>
-    <t>操作=打开&amp;位置=副驾&amp;对象=车窗</t>
-  </si>
-  <si>
-    <t>{"api": "sys.car.crl", "param": {"position": "副驾", "object_raw": "车窗", "customInnerType": "nativeCommand", "object": "车窗", "action": "打开"}}</t>
+    <t>操作=打开
+位置=副驾
+对象=车窗
+对象_raw=车窗</t>
+  </si>
+  <si>
+    <t>api=sys.car.crl
+param.position=副驾
+param.customInnerType=nativeCommand
+param.action=打开
+param.object_raw=车窗
+param.object=车窗</t>
+  </si>
+  <si>
+    <t>预期有nlg</t>
+  </si>
+  <si>
+    <t>调一下车窗</t>
+  </si>
+  <si>
+    <t>操作=调节
+对象=车窗
+对象_raw=车窗</t>
   </si>
 </sst>
 </file>
@@ -79,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -95,6 +124,89 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -108,38 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +236,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -160,78 +259,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,13 +282,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,31 +360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,13 +384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,13 +408,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,49 +438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,43 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +487,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,36 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -540,13 +554,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,16 +577,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,140 +606,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1058,22 +1093,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="149.375" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="39.875" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,125 +1134,188 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="81" spans="1:6">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:6">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="81" spans="1:6">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="81" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="81" spans="1:6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="81" spans="1:6">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="8" ht="81" spans="1:7">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="9" ht="40.5" spans="1:5">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="10" ht="40.5" spans="1:7">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/aispeech/ddsserver/dm/autotest/车控测试集.xlsx
+++ b/aispeech/ddsserver/dm/autotest/车控测试集.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
   <si>
     <t>测试用例</t>
   </si>
@@ -59,6 +59,34 @@
 位置=主驾
 对象=车窗
 对象_raw=车窗</t>
+  </si>
+  <si>
+    <t>调一下车窗</t>
+  </si>
+  <si>
+    <t>操作=调节
+对象=车窗
+对象_raw=车窗</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>api=sys.car.crl</t>
+  </si>
+  <si>
+    <t>api=sys.car.crl
+param.position=副驾
+param.customInnerType=nativeCommand
+param.action=打开
+param.object_raw=车窗
+param.object=车窗</t>
+  </si>
+  <si>
+    <t>预期有nlg</t>
+  </si>
+  <si>
+    <t>GDC车载控制1</t>
   </si>
   <si>
     <t>api=sys.car.crl
@@ -69,9 +97,6 @@
 param.object=车窗</t>
   </si>
   <si>
-    <t>GDC车载控制1</t>
-  </si>
-  <si>
     <t>车载控制1</t>
   </si>
   <si>
@@ -84,21 +109,16 @@
 对象_raw=车窗</t>
   </si>
   <si>
-    <t>api=sys.car.crl
-param.position=副驾
-param.customInnerType=nativeCommand
-param.action=打开
-param.object_raw=车窗
-param.object=车窗</t>
-  </si>
-  <si>
-    <t>预期有nlg</t>
-  </si>
-  <si>
-    <t>调一下车窗</t>
-  </si>
-  <si>
     <t>操作=调节
+位置=主驾
+对象=车窗
+对象_raw=车窗</t>
+  </si>
+  <si>
+    <t>打开车窗</t>
+  </si>
+  <si>
+    <t>操作=打开
 对象=车窗
 对象_raw=车窗</t>
   </si>
@@ -736,9 +756,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1093,19 +1120,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="35.625" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1138,129 +1165,119 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="81" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" ht="54" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:9">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" ht="81" spans="1:6">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" ht="40.5" spans="1:6">
+      <c r="A8" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="81" spans="1:6">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="81" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="81" spans="1:6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="81" spans="1:6">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" ht="81" spans="1:7">
-      <c r="A8" t="s">
-        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1271,36 +1288,16 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="40.5" spans="1:5">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" ht="40.5" spans="1:7">
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="81" spans="1:7">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1311,11 +1308,194 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="81" spans="1:6">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="81" spans="1:6">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="81" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="81" spans="1:6">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="81" spans="1:6">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="81" spans="1:6">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="1:7">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="1:7">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="81" spans="1:6">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
